--- a/scalpel/typeinfer/evaluation/evaluation_outputs/minimaxir__big-list-of-naughty-strings.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/minimaxir__big-list-of-naughty-strings.xlsx
@@ -29,12 +29,27 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +70,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,92 +477,147 @@
           <t>Scalpel Type</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>minimaxir__big-list-of-naughty-strings</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>__init__.py</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>naughty_strings</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>List</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>{'list', 'any', 'List[any]'}</t>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>{'any', 'list', 'List[any]'}</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>minimaxir__big-list-of-naughty-strings</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>__init__.py</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>naughty_strings</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Any</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>List</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>any</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PyType Total:</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Scalpel Total:</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>minimaxir__big-list-of-naughty-strings</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>__init__.py</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>naughty_strings</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>any</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>50</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Total comparisons:</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>PyType Wins:</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Wins:</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr"/>
+      <c r="B6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Accuracy over PyType</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/minimaxir__big-list-of-naughty-strings.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/minimaxir__big-list-of-naughty-strings.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -44,11 +44,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFA500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -70,14 +65,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -443,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +500,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'list', 'List[any]'}</t>
+          <t>{'list', 'any', 'List[any]'}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -538,12 +532,12 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -594,7 +588,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
@@ -608,15 +602,29 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr"/>
+      <c r="B7" s="2" t="inlineStr"/>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
+      <c r="F7" s="2" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/minimaxir__big-list-of-naughty-strings.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/minimaxir__big-list-of-naughty-strings.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>{'list', 'any', 'List[any]'}</t>
+          <t>{'list', 'List[any]', 'any'}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -602,16 +602,16 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="F6" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr"/>
@@ -620,7 +620,7 @@
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/minimaxir__big-list-of-naughty-strings.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/minimaxir__big-list-of-naughty-strings.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>{'list', 'List[any]', 'any'}</t>
+          <t>List[any]</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -512,119 +512,57 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>minimaxir__big-list-of-naughty-strings</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>__init__.py</t>
-        </is>
+          <t>Total comparisons:</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>naughty_strings</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>List</t>
-        </is>
+          <t>PyType Wins:</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
+          <t>Scalpel Wins:</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>minimaxir__big-list-of-naughty-strings</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>__init__.py</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>naughty_strings</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Any</t>
-        </is>
-      </c>
+      <c r="A4" s="2" t="inlineStr"/>
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Total comparisons:</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>PyType Wins:</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="A5" s="2" t="inlineStr"/>
+      <c r="B5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Scalpel Wins:</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr"/>
-      <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Scalpel Accuracy:</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr"/>
-      <c r="B7" s="2" t="inlineStr"/>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
           <t>Accuracy vs PyType</t>
         </is>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>100</v>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
       </c>
     </row>
   </sheetData>
